--- a/Risk.xlsx
+++ b/Risk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\Git\easyFinance-SoftwareEngeneering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75BBD4E-B0FF-40A9-B794-73906F6A909B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40E61B-AD7A-43AB-9262-4B46E9C51FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7A0CFCD5-0844-406C-A993-55C880F8A695}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Risk Name</t>
   </si>
@@ -121,9 +121,6 @@
     <t>unable to work productively</t>
   </si>
   <si>
-    <t>Possibility of loosing menbers because of illness or other issues during the project</t>
-  </si>
-  <si>
     <t>complex technology, teammembers have to get used to software</t>
   </si>
   <si>
@@ -175,7 +172,52 @@
     <t>some systems or software tool break down which makes a productive way of working impossible</t>
   </si>
   <si>
-    <t>medium - high</t>
+    <t>stay at home</t>
+  </si>
+  <si>
+    <t>do tutorials, take time to get used to technology</t>
+  </si>
+  <si>
+    <t>time management, spend freetime</t>
+  </si>
+  <si>
+    <t>work with several tools, take common and supported tools</t>
+  </si>
+  <si>
+    <t>Possibility of loosing menbers because of illness/exmatrikulation or other issues during the project (Corona)</t>
+  </si>
+  <si>
+    <t>a lot of discussions, analyse the users expectations</t>
+  </si>
+  <si>
+    <t>make the software architecture adaptable</t>
+  </si>
+  <si>
+    <t>define some</t>
+  </si>
+  <si>
+    <t>specify a general way of working in team</t>
+  </si>
+  <si>
+    <t>team could manage itself, every member is allowed to give advises</t>
+  </si>
+  <si>
+    <t>use simple communication tools since corona prevents social contact</t>
+  </si>
+  <si>
+    <t>use version controle software -&gt; comit early, commit often</t>
+  </si>
+  <si>
+    <t>nothing to do</t>
+  </si>
+  <si>
+    <t>make an appropriate handover of all subjects/jobs</t>
+  </si>
+  <si>
+    <t>control each other in some way. Have discussions about progress, help each other if there are problems</t>
+  </si>
+  <si>
+    <t>share skills of tool with the team/whole class - know how transfer</t>
   </si>
 </sst>
 </file>
@@ -262,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -299,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -307,7 +352,68 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -620,14 +726,15 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="25.7109375" style="11" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" style="11" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="12"/>
     <col min="9" max="13" width="10.7109375" style="12" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="12"/>
@@ -656,18 +763,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
+      </c>
+      <c r="E2" s="13">
+        <f>D2*C2</f>
+        <v>72</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -675,13 +789,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>8</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E18" si="0">D3*C3</f>
+        <v>48</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -689,13 +810,20 @@
         <v>13</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>9</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -703,13 +831,20 @@
         <v>14</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -717,12 +852,16 @@
         <v>15</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
       </c>
       <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -731,13 +870,20 @@
         <v>16</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -745,27 +891,41 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
+      <c r="C9" s="2">
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>9</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -773,13 +933,20 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <v>4</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -787,13 +954,20 @@
         <v>20</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -801,13 +975,20 @@
         <v>21</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -815,13 +996,20 @@
         <v>22</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6</v>
       </c>
       <c r="D13" s="2">
         <v>8</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -829,13 +1017,20 @@
         <v>23</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>41</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -843,13 +1038,20 @@
         <v>24</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -857,44 +1059,77 @@
         <v>25</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7</v>
       </c>
       <c r="D18" s="2">
         <v>8</v>
       </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E18">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>25</formula>
+      <formula>75</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>25</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -905,7 +1140,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,11 +1152,11 @@
     <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -937,11 +1172,11 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -954,7 +1189,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,9 +1204,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>

--- a/Risk.xlsx
+++ b/Risk.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\Git\easyFinance-SoftwareEngeneering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\easyFinance-SoftwareEngeneering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40E61B-AD7A-43AB-9262-4B46E9C51FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442DB43-2ACC-4C4D-B498-5A95D487819C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7A0CFCD5-0844-406C-A993-55C880F8A695}"/>
+    <workbookView xWindow="40920" yWindow="-3075" windowWidth="29040" windowHeight="17640" xr2:uid="{7A0CFCD5-0844-406C-A993-55C880F8A695}"/>
   </bookViews>
   <sheets>
     <sheet name="risk_overview" sheetId="1" r:id="rId1"/>
     <sheet name="risk_factor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -240,7 +240,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF6600"/>
+      <color rgb="FFFFFF00"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -277,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -300,11 +300,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,12 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -346,32 +436,236 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -403,16 +697,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -424,6 +708,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF54E595-CCA4-47F2-905B-15BA1B0854E9}" name="Tabelle1" displayName="Tabelle1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:G18" xr:uid="{E0F21B90-E796-4DA9-A6A6-FF8E15A94A27}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+    <sortCondition descending="1" ref="E1:E18"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{8D1FED25-B977-421D-BEB4-D7AB7CD850D2}" name="Risk Name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2C5AEA8B-2138-4941-BDB4-073E7F8FA625}" name="Risk Description" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F1C01ADF-BED2-4161-ABB7-C3F2F97599D8}" name="Risk Probability of Occurrence " dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{ED05051A-B199-45A3-9B38-2D1F67EB68C8}" name="Risk Impact" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{D21778AB-17DC-4ED5-804A-FF1F1B80AA80}" name="Risk Factor (sort)" dataDxfId="4">
+      <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{C57C37E3-5405-49B2-A6C8-05AE817CA638}" name="Risk Mitigation" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F8E5AB5A-E79B-419B-ACDD-FC02F6677D1E}" name="Person in Charge of Tracking" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,412 +1031,434 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="25.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="12"/>
-    <col min="9" max="13" width="10.7109375" style="12" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="2" width="25.73046875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.73046875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.73046875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.73046875" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" style="10"/>
+    <col min="9" max="13" width="10.73046875" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="11.3984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>50</v>
+    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>9</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <f>D2*C2</f>
+        <v>81</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3*C3</f>
         <v>72</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="12">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12">
+        <f>D4*C4</f>
+        <v>56</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E3" s="13">
-        <f t="shared" ref="E3:E18" si="0">D3*C3</f>
+      <c r="E5" s="11">
+        <f>D5*C5</f>
         <v>48</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11">
+        <f>D6*C6</f>
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11">
+        <f>D7*C7</f>
+        <v>32</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11">
+        <f>D8*C8</f>
         <v>30</v>
       </c>
-      <c r="C4" s="2">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="F8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11">
+        <f>D9*C9</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>6</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="D10" s="2">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11">
+        <f>D10*C10</f>
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C11" s="2">
         <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>9</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
+      <c r="E11" s="11">
+        <f>D11*C11</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
+      <c r="B12" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <f>D12*C12</f>
+        <v>18</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11">
+        <f>D13*C13</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+      <c r="E14" s="11">
+        <f>D14*C14</f>
+        <v>9</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="E15" s="11">
+        <f>D15*C15</f>
         <v>8</v>
       </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>10</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="F15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <f>D16*C16</f>
+        <v>6</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>61</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E17" s="11">
+        <f>D17*C17</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <f>D18*C18</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E18">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="greaterThan">
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
       <formula>25</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1143,22 +1470,22 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.86328125" customWidth="1"/>
+    <col min="2" max="6" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
@@ -1171,8 +1498,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1188,8 +1515,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="13"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,8 +1530,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>

--- a/Risk.xlsx
+++ b/Risk.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\easyFinance-SoftwareEngeneering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dominik\Studium\3_Semester\8_Software-Engineering\easyFinance-SoftwareEngeneering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6442DB43-2ACC-4C4D-B498-5A95D487819C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D97D27-A059-465B-9201-C990D671753D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-3075" windowWidth="29040" windowHeight="17640" xr2:uid="{7A0CFCD5-0844-406C-A993-55C880F8A695}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7A0CFCD5-0844-406C-A993-55C880F8A695}"/>
   </bookViews>
   <sheets>
     <sheet name="risk_overview" sheetId="1" r:id="rId1"/>
     <sheet name="risk_factor" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -172,15 +172,9 @@
     <t>some systems or software tool break down which makes a productive way of working impossible</t>
   </si>
   <si>
-    <t>stay at home</t>
-  </si>
-  <si>
     <t>do tutorials, take time to get used to technology</t>
   </si>
   <si>
-    <t>time management, spend freetime</t>
-  </si>
-  <si>
     <t>work with several tools, take common and supported tools</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>team could manage itself, every member is allowed to give advises</t>
   </si>
   <si>
-    <t>use simple communication tools since corona prevents social contact</t>
-  </si>
-  <si>
     <t>use version controle software -&gt; comit early, commit often</t>
   </si>
   <si>
@@ -217,7 +208,16 @@
     <t>control each other in some way. Have discussions about progress, help each other if there are problems</t>
   </si>
   <si>
-    <t>share skills of tool with the team/whole class - know how transfer</t>
+    <t>communication is important, so that others can take on tasks, continue working at home if possible</t>
+  </si>
+  <si>
+    <t>work on time management, spend freetime</t>
+  </si>
+  <si>
+    <t>Save progress often, work with several tools and stay adaptable</t>
+  </si>
+  <si>
+    <t>use simple communication tools since corona prevents social contact, "force" everybody to state progress via youtrack</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -469,6 +469,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,6 +479,168 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -503,168 +668,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -711,21 +714,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF54E595-CCA4-47F2-905B-15BA1B0854E9}" name="Tabelle1" displayName="Tabelle1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CF54E595-CCA4-47F2-905B-15BA1B0854E9}" name="Tabelle1" displayName="Tabelle1" ref="A1:G18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G18" xr:uid="{E0F21B90-E796-4DA9-A6A6-FF8E15A94A27}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition descending="1" ref="E1:E18"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{8D1FED25-B977-421D-BEB4-D7AB7CD850D2}" name="Risk Name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2C5AEA8B-2138-4941-BDB4-073E7F8FA625}" name="Risk Description" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F1C01ADF-BED2-4161-ABB7-C3F2F97599D8}" name="Risk Probability of Occurrence " dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{ED05051A-B199-45A3-9B38-2D1F67EB68C8}" name="Risk Impact" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{D21778AB-17DC-4ED5-804A-FF1F1B80AA80}" name="Risk Factor (sort)" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{8D1FED25-B977-421D-BEB4-D7AB7CD850D2}" name="Risk Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{2C5AEA8B-2138-4941-BDB4-073E7F8FA625}" name="Risk Description" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{F1C01ADF-BED2-4161-ABB7-C3F2F97599D8}" name="Risk Probability of Occurrence " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ED05051A-B199-45A3-9B38-2D1F67EB68C8}" name="Risk Impact" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D21778AB-17DC-4ED5-804A-FF1F1B80AA80}" name="Risk Factor (sort)" dataDxfId="2">
       <calculatedColumnFormula>D2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C57C37E3-5405-49B2-A6C8-05AE817CA638}" name="Risk Mitigation" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F8E5AB5A-E79B-419B-ACDD-FC02F6677D1E}" name="Person in Charge of Tracking" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C57C37E3-5405-49B2-A6C8-05AE817CA638}" name="Risk Mitigation" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{F8E5AB5A-E79B-419B-ACDD-FC02F6677D1E}" name="Person in Charge of Tracking" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1031,22 +1034,24 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.73046875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.73046875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="25.73046875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.73046875" style="9" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="10"/>
-    <col min="9" max="13" width="10.73046875" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="11.3984375" style="10"/>
+    <col min="1" max="1" width="25.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="10"/>
+    <col min="9" max="13" width="10.7109375" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1069,34 +1074,34 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="13">
         <v>9</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <f>D2*C2</f>
         <v>81</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
+      <c r="F2" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>8</v>
@@ -1109,33 +1114,33 @@
         <v>72</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C4" s="12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12">
         <v>8</v>
       </c>
       <c r="E4" s="12">
         <f>D4*C4</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
@@ -1146,150 +1151,150 @@
         <v>6</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="11">
         <f>D5*C5</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>8</v>
       </c>
       <c r="E6" s="11">
         <f>D6*C6</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="11">
         <f>D7*C7</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" s="11">
         <f>D8*C8</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="11">
         <f>D9*C9</f>
         <v>30</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11">
         <f>D10*C10</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
       <c r="E11" s="11">
         <f>D11*C11</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -1307,11 +1312,11 @@
         <v>18</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
@@ -1329,11 +1334,11 @@
         <v>12</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
@@ -1351,11 +1356,11 @@
         <v>9</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>26</v>
       </c>
@@ -1373,11 +1378,11 @@
         <v>8</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>24</v>
       </c>
@@ -1395,11 +1400,11 @@
         <v>6</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1417,11 +1422,11 @@
         <v>4</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -1470,22 +1475,22 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.86328125" customWidth="1"/>
-    <col min="2" max="6" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
@@ -1498,8 +1503,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1515,8 +1520,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="13"/>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1530,8 +1535,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="13"/>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
